--- a/Project/Excel Work Sample/Graph.xlsx
+++ b/Project/Excel Work Sample/Graph.xlsx
@@ -1417,7 +1417,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1679,9 +1678,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1758,7 +1755,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6877,7 +6873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
